--- a/Resources/Arquivos/teste.xlsx
+++ b/Resources/Arquivos/teste.xlsx
@@ -21,12 +21,100 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t xml:space="preserve">Denominação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teste com tabela</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+  <si>
+    <t xml:space="preserve">Profissão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nivel de formação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPERIOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conselho profissional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFBM - CONSELHO FEDERAL DE BIOMEDICINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Especialidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denominacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste especialidade ana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descricão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste automatizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modalidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste modalidade ana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profissional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRTeste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">710.088.190-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADM GERAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testeac12@email.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinculo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTERNO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registro profissional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
 </sst>
 </file>
@@ -36,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -65,16 +153,82 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA6A6"/>
+        <bgColor rgb="FFFFAA95"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD7D7"/>
+        <bgColor rgb="FFFFFFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E905"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFD7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8A202"/>
+        <bgColor rgb="FFEA7500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB66C"/>
+        <bgColor rgb="FFFFAA95"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA7500"/>
+        <bgColor rgb="FFE8A202"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFAA95"/>
+        <bgColor rgb="FFFFA6A6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -82,6 +236,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -108,13 +269,101 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -126,6 +375,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFE6E905"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFD7"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFFAA95"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFFA6A6"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFD7D7"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFB66C"/>
+      <rgbColor rgb="FFE8A202"/>
+      <rgbColor rgb="FFEA7500"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -134,27 +443,198 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="22" t="n">
+        <v>15842</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="23" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A23:B23"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B27" r:id="rId1" display="testeac12@email.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -176,7 +656,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
